--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Recorrido.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Recorrido.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B6A2531-D82C-4514-8916-47ADD73BE9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C23A06-45C0-454B-B85F-730B25946C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{30B905BA-7AAF-4B26-A03D-2CCA40FD8F48}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Anno</t>
   </si>
@@ -95,9 +95,6 @@
     <t>KRV eléctrico</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Factor de Rendimiento</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Distancia recorrida anualmente por vehículo en promedio.</t>
-  </si>
-  <si>
-    <t>Número de vehículos de este tipo.</t>
   </si>
   <si>
     <t>Factor de Rendimiento (Si no conoce se asigna un factor por defecto.</t>
@@ -589,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C450A9-D1BC-4C7C-8B76-A0784F633974}">
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,12 +597,11 @@
     <col min="4" max="4" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -633,110 +626,98 @@
       <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="13">
-        <f>VLOOKUP(C3,Tabla_Vehiculo,2,)</f>
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Vehiculo,2,)</f>
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="13">
-        <f>VLOOKUP(E3,Tabla_Combustible,2,)</f>
+        <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_Combustible,2,)</f>
         <v>3</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14">
-        <v>34184</v>
-      </c>
-      <c r="G3" s="14">
+        <v>57600</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H3" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="13">
-        <f>VLOOKUP(C4,Tabla_Vehiculo,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13">
-        <f>VLOOKUP(E4,Tabla_Combustible,2,)</f>
-        <v>3</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="14">
-        <v>6761</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.1666</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2019</v>
       </c>
       <c r="B5" s="13">
-        <f>VLOOKUP(C5,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="13">
-        <f>VLOOKUP(E5,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -745,5218 +726,4908 @@
       <c r="F5" s="14">
         <v>21799</v>
       </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="15">
         <v>0.82299999999999995</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="13">
-        <f>VLOOKUP(C6,Tabla_Vehiculo,2,)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" s="13">
-        <f>VLOOKUP(E6,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14">
-        <v>10838</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12500</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="e">
-        <f>VLOOKUP(C7,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="e">
-        <f>VLOOKUP(E7,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="e">
-        <f>VLOOKUP(C8,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="e">
-        <f>VLOOKUP(E8,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="e">
-        <f>VLOOKUP(C9,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="e">
-        <f>VLOOKUP(E9,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="e">
-        <f>VLOOKUP(C10,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="e">
-        <f>VLOOKUP(E10,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="e">
-        <f>VLOOKUP(C11,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="e">
-        <f>VLOOKUP(E11,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="e">
-        <f>VLOOKUP(C12,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="e">
-        <f>VLOOKUP(E12,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="e">
-        <f>VLOOKUP(C13,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="e">
-        <f>VLOOKUP(E13,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="e">
-        <f>VLOOKUP(C14,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="e">
-        <f>VLOOKUP(E14,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="e">
-        <f>VLOOKUP(C15,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="e">
-        <f>VLOOKUP(E15,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="e">
-        <f>VLOOKUP(C16,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="e">
-        <f>VLOOKUP(E16,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="e">
-        <f>VLOOKUP(C17,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="e">
-        <f>VLOOKUP(E17,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="e">
-        <f>VLOOKUP(C18,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="e">
-        <f>VLOOKUP(E18,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="e">
-        <f>VLOOKUP(C19,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="e">
-        <f>VLOOKUP(E19,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="e">
-        <f>VLOOKUP(C20,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="e">
-        <f>VLOOKUP(E20,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="e">
-        <f>VLOOKUP(C21,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="e">
-        <f>VLOOKUP(E21,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="e">
-        <f>VLOOKUP(C22,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="e">
-        <f>VLOOKUP(E22,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="e">
-        <f>VLOOKUP(C23,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="e">
-        <f>VLOOKUP(E23,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="e">
-        <f>VLOOKUP(C24,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="e">
-        <f>VLOOKUP(E24,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="e">
-        <f>VLOOKUP(C25,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="e">
-        <f>VLOOKUP(E25,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="e">
-        <f>VLOOKUP(C26,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="e">
-        <f>VLOOKUP(E26,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="e">
-        <f>VLOOKUP(C27,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="e">
-        <f>VLOOKUP(E27,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="e">
-        <f>VLOOKUP(C28,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="e">
-        <f>VLOOKUP(E28,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="e">
-        <f>VLOOKUP(C29,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="e">
-        <f>VLOOKUP(E29,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="e">
-        <f>VLOOKUP(C30,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="e">
-        <f>VLOOKUP(E30,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="e">
-        <f>VLOOKUP(C31,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="e">
-        <f>VLOOKUP(E31,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="e">
-        <f>VLOOKUP(C32,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="e">
-        <f>VLOOKUP(E32,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="e">
-        <f>VLOOKUP(C33,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="e">
-        <f>VLOOKUP(E33,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="e">
-        <f>VLOOKUP(C34,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="e">
-        <f>VLOOKUP(E34,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="e">
-        <f>VLOOKUP(C35,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="e">
-        <f>VLOOKUP(E35,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="e">
-        <f>VLOOKUP(C36,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="e">
-        <f>VLOOKUP(E36,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="e">
-        <f>VLOOKUP(C37,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="e">
-        <f>VLOOKUP(E37,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="e">
-        <f>VLOOKUP(C38,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="e">
-        <f>VLOOKUP(E38,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="e">
-        <f>VLOOKUP(C39,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="e">
-        <f>VLOOKUP(E39,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="e">
-        <f>VLOOKUP(C40,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="e">
-        <f>VLOOKUP(E40,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="e">
-        <f>VLOOKUP(C41,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="e">
-        <f>VLOOKUP(E41,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="e">
-        <f>VLOOKUP(C42,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="e">
-        <f>VLOOKUP(E42,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="e">
-        <f>VLOOKUP(C43,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9" t="e">
-        <f>VLOOKUP(E43,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="e">
-        <f>VLOOKUP(C44,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9" t="e">
-        <f>VLOOKUP(E44,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="e">
-        <f>VLOOKUP(C45,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="e">
-        <f>VLOOKUP(E45,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="e">
-        <f>VLOOKUP(C46,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="e">
-        <f>VLOOKUP(E46,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="e">
-        <f>VLOOKUP(C47,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="e">
-        <f>VLOOKUP(E47,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="e">
-        <f>VLOOKUP(C48,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="e">
-        <f>VLOOKUP(E48,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="e">
-        <f>VLOOKUP(C49,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9" t="e">
-        <f>VLOOKUP(E49,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="e">
-        <f>VLOOKUP(C50,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="e">
-        <f>VLOOKUP(E50,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="e">
-        <f>VLOOKUP(C51,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9" t="e">
-        <f>VLOOKUP(E51,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="e">
-        <f>VLOOKUP(C52,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="e">
-        <f>VLOOKUP(E52,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="e">
-        <f>VLOOKUP(C53,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9" t="e">
-        <f>VLOOKUP(E53,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="e">
-        <f>VLOOKUP(C54,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="e">
-        <f>VLOOKUP(E54,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="e">
-        <f>VLOOKUP(C55,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="e">
-        <f>VLOOKUP(E55,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="e">
-        <f>VLOOKUP(C56,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="e">
-        <f>VLOOKUP(E56,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="e">
-        <f>VLOOKUP(C57,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="e">
-        <f>VLOOKUP(E57,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="e">
-        <f>VLOOKUP(C58,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="e">
-        <f>VLOOKUP(E58,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="e">
-        <f>VLOOKUP(C59,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="e">
-        <f>VLOOKUP(E59,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="e">
-        <f>VLOOKUP(C60,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9" t="e">
-        <f>VLOOKUP(E60,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="e">
-        <f>VLOOKUP(C61,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9" t="e">
-        <f>VLOOKUP(E61,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="e">
-        <f>VLOOKUP(C62,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="e">
-        <f>VLOOKUP(E62,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="12"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="e">
-        <f>VLOOKUP(C63,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="e">
-        <f>VLOOKUP(E63,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="12"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="e">
-        <f>VLOOKUP(C64,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="e">
-        <f>VLOOKUP(E64,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="12"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="e">
-        <f>VLOOKUP(C65,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="e">
-        <f>VLOOKUP(E65,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="12"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="e">
-        <f>VLOOKUP(C66,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="e">
-        <f>VLOOKUP(E66,Tabla_Combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="12"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="e">
-        <f>VLOOKUP(C67,Tabla_Vehiculo,2,)</f>
+        <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_Vehiculo,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="e">
-        <f>VLOOKUP(E67,Tabla_Combustible,2,)</f>
+        <f t="shared" ref="D67:D130" si="3">VLOOKUP(E67,Tabla_Combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="12"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="e">
-        <f>VLOOKUP(C68,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="e">
-        <f>VLOOKUP(E68,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="e">
-        <f>VLOOKUP(C69,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="e">
-        <f>VLOOKUP(E69,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="12"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="11"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="e">
-        <f>VLOOKUP(C70,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="e">
-        <f>VLOOKUP(E70,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="11"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="e">
-        <f>VLOOKUP(C71,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="e">
-        <f>VLOOKUP(E71,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="12"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="e">
-        <f>VLOOKUP(C72,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9" t="e">
-        <f>VLOOKUP(E72,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="12"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="11"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="e">
-        <f>VLOOKUP(C73,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="e">
-        <f>VLOOKUP(E73,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="12"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="11"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="e">
-        <f>VLOOKUP(C74,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="e">
-        <f>VLOOKUP(E74,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="11"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="e">
-        <f>VLOOKUP(C75,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="e">
-        <f>VLOOKUP(E75,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="11"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="e">
-        <f>VLOOKUP(C76,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9" t="e">
-        <f>VLOOKUP(E76,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="12"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="e">
-        <f>VLOOKUP(C77,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="e">
-        <f>VLOOKUP(E77,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="12"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="e">
-        <f>VLOOKUP(C78,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="e">
-        <f>VLOOKUP(E78,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="12"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="e">
-        <f>VLOOKUP(C79,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="e">
-        <f>VLOOKUP(E79,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="12"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="11"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="e">
-        <f>VLOOKUP(C80,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="e">
-        <f>VLOOKUP(E80,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="11"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="e">
-        <f>VLOOKUP(C81,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="e">
-        <f>VLOOKUP(E81,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="12"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="e">
-        <f>VLOOKUP(C82,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="e">
-        <f>VLOOKUP(E82,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="12"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="e">
-        <f>VLOOKUP(C83,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9" t="e">
-        <f>VLOOKUP(E83,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="12"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="e">
-        <f>VLOOKUP(C84,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9" t="e">
-        <f>VLOOKUP(E84,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="12"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="11"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="e">
-        <f>VLOOKUP(C85,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9" t="e">
-        <f>VLOOKUP(E85,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="12"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="11"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="e">
-        <f>VLOOKUP(C86,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9" t="e">
-        <f>VLOOKUP(E86,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="12"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="11"/>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="e">
-        <f>VLOOKUP(C87,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9" t="e">
-        <f>VLOOKUP(E87,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="12"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="e">
-        <f>VLOOKUP(C88,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9" t="e">
-        <f>VLOOKUP(E88,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="12"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G88" s="11"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="e">
-        <f>VLOOKUP(C89,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9" t="e">
-        <f>VLOOKUP(E89,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="12"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="11"/>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="e">
-        <f>VLOOKUP(C90,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9" t="e">
-        <f>VLOOKUP(E90,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="11"/>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="e">
-        <f>VLOOKUP(C91,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9" t="e">
-        <f>VLOOKUP(E91,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="e">
-        <f>VLOOKUP(C92,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="e">
-        <f>VLOOKUP(E92,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="12"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="e">
-        <f>VLOOKUP(C93,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9" t="e">
-        <f>VLOOKUP(E93,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="e">
-        <f>VLOOKUP(C94,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9" t="e">
-        <f>VLOOKUP(E94,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="e">
-        <f>VLOOKUP(C95,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9" t="e">
-        <f>VLOOKUP(E95,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="12"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="e">
-        <f>VLOOKUP(C96,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9" t="e">
-        <f>VLOOKUP(E96,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="e">
-        <f>VLOOKUP(C97,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9" t="e">
-        <f>VLOOKUP(E97,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="e">
-        <f>VLOOKUP(C98,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="e">
-        <f>VLOOKUP(E98,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="12"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="e">
-        <f>VLOOKUP(C99,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9" t="e">
-        <f>VLOOKUP(E99,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="e">
-        <f>VLOOKUP(C100,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9" t="e">
-        <f>VLOOKUP(E100,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="e">
-        <f>VLOOKUP(C101,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9" t="e">
-        <f>VLOOKUP(E101,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="e">
-        <f>VLOOKUP(C102,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9" t="e">
-        <f>VLOOKUP(E102,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="12"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="e">
-        <f>VLOOKUP(C103,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9" t="e">
-        <f>VLOOKUP(E103,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="12"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="e">
-        <f>VLOOKUP(C104,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9" t="e">
-        <f>VLOOKUP(E104,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="12"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="e">
-        <f>VLOOKUP(C105,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="e">
-        <f>VLOOKUP(E105,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="12"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="e">
-        <f>VLOOKUP(C106,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9" t="e">
-        <f>VLOOKUP(E106,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="12"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="e">
-        <f>VLOOKUP(C107,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9" t="e">
-        <f>VLOOKUP(E107,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="12"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="e">
-        <f>VLOOKUP(C108,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9" t="e">
-        <f>VLOOKUP(E108,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="12"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="e">
-        <f>VLOOKUP(C109,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9" t="e">
-        <f>VLOOKUP(E109,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="12"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="e">
-        <f>VLOOKUP(C110,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="e">
-        <f>VLOOKUP(E110,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="12"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="e">
-        <f>VLOOKUP(C111,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="e">
-        <f>VLOOKUP(E111,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="12"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="e">
-        <f>VLOOKUP(C112,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9" t="e">
-        <f>VLOOKUP(E112,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="12"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="e">
-        <f>VLOOKUP(C113,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9" t="e">
-        <f>VLOOKUP(E113,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="12"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="e">
-        <f>VLOOKUP(C114,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="e">
-        <f>VLOOKUP(E114,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="12"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9" t="e">
-        <f>VLOOKUP(C115,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9" t="e">
-        <f>VLOOKUP(E115,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="12"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="e">
-        <f>VLOOKUP(C116,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9" t="e">
-        <f>VLOOKUP(E116,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="12"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="e">
-        <f>VLOOKUP(C117,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9" t="e">
-        <f>VLOOKUP(E117,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="12"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G117" s="11"/>
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="e">
-        <f>VLOOKUP(C118,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="e">
-        <f>VLOOKUP(E118,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="12"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G118" s="11"/>
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="e">
-        <f>VLOOKUP(C119,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="e">
-        <f>VLOOKUP(E119,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="12"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G119" s="11"/>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="e">
-        <f>VLOOKUP(C120,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9" t="e">
-        <f>VLOOKUP(E120,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="12"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G120" s="11"/>
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="e">
-        <f>VLOOKUP(C121,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9" t="e">
-        <f>VLOOKUP(E121,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="12"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G121" s="11"/>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="e">
-        <f>VLOOKUP(C122,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9" t="e">
-        <f>VLOOKUP(E122,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="12"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G122" s="11"/>
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9" t="e">
-        <f>VLOOKUP(C123,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9" t="e">
-        <f>VLOOKUP(E123,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="12"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G123" s="11"/>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9" t="e">
-        <f>VLOOKUP(C124,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9" t="e">
-        <f>VLOOKUP(E124,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="12"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G124" s="11"/>
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="e">
-        <f>VLOOKUP(C125,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9" t="e">
-        <f>VLOOKUP(E125,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="12"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G125" s="11"/>
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="e">
-        <f>VLOOKUP(C126,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9" t="e">
-        <f>VLOOKUP(E126,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="12"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G126" s="11"/>
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="e">
-        <f>VLOOKUP(C127,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9" t="e">
-        <f>VLOOKUP(E127,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="12"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G127" s="11"/>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="e">
-        <f>VLOOKUP(C128,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9" t="e">
-        <f>VLOOKUP(E128,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="12"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G128" s="11"/>
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="e">
-        <f>VLOOKUP(C129,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="e">
-        <f>VLOOKUP(E129,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="12"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G129" s="11"/>
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9" t="e">
-        <f>VLOOKUP(C130,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9" t="e">
-        <f>VLOOKUP(E130,Tabla_Combustible,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="12"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G130" s="11"/>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="e">
-        <f>VLOOKUP(C131,Tabla_Vehiculo,2,)</f>
+        <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_Vehiculo,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="e">
-        <f>VLOOKUP(E131,Tabla_Combustible,2,)</f>
+        <f t="shared" ref="D131:D194" si="5">VLOOKUP(E131,Tabla_Combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="12"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G131" s="11"/>
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9" t="e">
-        <f>VLOOKUP(C132,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="e">
-        <f>VLOOKUP(E132,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="12"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G132" s="11"/>
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="e">
-        <f>VLOOKUP(C133,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9" t="e">
-        <f>VLOOKUP(E133,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="12"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G133" s="11"/>
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9" t="e">
-        <f>VLOOKUP(C134,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="e">
-        <f>VLOOKUP(E134,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="12"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G134" s="11"/>
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="e">
-        <f>VLOOKUP(C135,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9" t="e">
-        <f>VLOOKUP(E135,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="12"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G135" s="11"/>
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9" t="e">
-        <f>VLOOKUP(C136,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="e">
-        <f>VLOOKUP(E136,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="12"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G136" s="11"/>
+      <c r="H136" s="12"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="e">
-        <f>VLOOKUP(C137,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9" t="e">
-        <f>VLOOKUP(E137,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="12"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G137" s="11"/>
+      <c r="H137" s="12"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9" t="e">
-        <f>VLOOKUP(C138,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9" t="e">
-        <f>VLOOKUP(E138,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="12"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G138" s="11"/>
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9" t="e">
-        <f>VLOOKUP(C139,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="e">
-        <f>VLOOKUP(E139,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="12"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G139" s="11"/>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9" t="e">
-        <f>VLOOKUP(C140,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9" t="e">
-        <f>VLOOKUP(E140,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="12"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G140" s="11"/>
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="e">
-        <f>VLOOKUP(C141,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="e">
-        <f>VLOOKUP(E141,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="12"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G141" s="11"/>
+      <c r="H141" s="12"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="e">
-        <f>VLOOKUP(C142,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9" t="e">
-        <f>VLOOKUP(E142,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="12"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G142" s="11"/>
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="e">
-        <f>VLOOKUP(C143,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="e">
-        <f>VLOOKUP(E143,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="12"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G143" s="11"/>
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9" t="e">
-        <f>VLOOKUP(C144,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="e">
-        <f>VLOOKUP(E144,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="12"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G144" s="11"/>
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="e">
-        <f>VLOOKUP(C145,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="e">
-        <f>VLOOKUP(E145,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="12"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G145" s="11"/>
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="e">
-        <f>VLOOKUP(C146,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9" t="e">
-        <f>VLOOKUP(E146,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="12"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G146" s="11"/>
+      <c r="H146" s="12"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="e">
-        <f>VLOOKUP(C147,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="e">
-        <f>VLOOKUP(E147,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="12"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G147" s="11"/>
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="e">
-        <f>VLOOKUP(C148,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9" t="e">
-        <f>VLOOKUP(E148,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="12"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="11"/>
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="e">
-        <f>VLOOKUP(C149,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="e">
-        <f>VLOOKUP(E149,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="12"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G149" s="11"/>
+      <c r="H149" s="12"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="e">
-        <f>VLOOKUP(C150,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9" t="e">
-        <f>VLOOKUP(E150,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="12"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G150" s="11"/>
+      <c r="H150" s="12"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="e">
-        <f>VLOOKUP(C151,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="e">
-        <f>VLOOKUP(E151,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="12"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G151" s="11"/>
+      <c r="H151" s="12"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="e">
-        <f>VLOOKUP(C152,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="e">
-        <f>VLOOKUP(E152,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="12"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G152" s="11"/>
+      <c r="H152" s="12"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="e">
-        <f>VLOOKUP(C153,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9" t="e">
-        <f>VLOOKUP(E153,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="12"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G153" s="11"/>
+      <c r="H153" s="12"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="e">
-        <f>VLOOKUP(C154,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9" t="e">
-        <f>VLOOKUP(E154,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="12"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="11"/>
+      <c r="H154" s="12"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="e">
-        <f>VLOOKUP(C155,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9" t="e">
-        <f>VLOOKUP(E155,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="12"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G155" s="11"/>
+      <c r="H155" s="12"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9" t="e">
-        <f>VLOOKUP(C156,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9" t="e">
-        <f>VLOOKUP(E156,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="12"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G156" s="11"/>
+      <c r="H156" s="12"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="e">
-        <f>VLOOKUP(C157,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9" t="e">
-        <f>VLOOKUP(E157,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="12"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G157" s="11"/>
+      <c r="H157" s="12"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="e">
-        <f>VLOOKUP(C158,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9" t="e">
-        <f>VLOOKUP(E158,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="12"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G158" s="11"/>
+      <c r="H158" s="12"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="e">
-        <f>VLOOKUP(C159,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9" t="e">
-        <f>VLOOKUP(E159,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="12"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G159" s="11"/>
+      <c r="H159" s="12"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="e">
-        <f>VLOOKUP(C160,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9" t="e">
-        <f>VLOOKUP(E160,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="12"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G160" s="11"/>
+      <c r="H160" s="12"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9" t="e">
-        <f>VLOOKUP(C161,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9" t="e">
-        <f>VLOOKUP(E161,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="12"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G161" s="11"/>
+      <c r="H161" s="12"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="e">
-        <f>VLOOKUP(C162,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9" t="e">
-        <f>VLOOKUP(E162,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="12"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G162" s="11"/>
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9" t="e">
-        <f>VLOOKUP(C163,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9" t="e">
-        <f>VLOOKUP(E163,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="12"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G163" s="11"/>
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="e">
-        <f>VLOOKUP(C164,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9" t="e">
-        <f>VLOOKUP(E164,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="12"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G164" s="11"/>
+      <c r="H164" s="12"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="e">
-        <f>VLOOKUP(C165,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9" t="e">
-        <f>VLOOKUP(E165,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="12"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G165" s="11"/>
+      <c r="H165" s="12"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="e">
-        <f>VLOOKUP(C166,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9" t="e">
-        <f>VLOOKUP(E166,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="12"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G166" s="11"/>
+      <c r="H166" s="12"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="e">
-        <f>VLOOKUP(C167,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9" t="e">
-        <f>VLOOKUP(E167,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="12"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G167" s="11"/>
+      <c r="H167" s="12"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="e">
-        <f>VLOOKUP(C168,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9" t="e">
-        <f>VLOOKUP(E168,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="12"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G168" s="11"/>
+      <c r="H168" s="12"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="e">
-        <f>VLOOKUP(C169,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9" t="e">
-        <f>VLOOKUP(E169,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="12"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G169" s="11"/>
+      <c r="H169" s="12"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="e">
-        <f>VLOOKUP(C170,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9" t="e">
-        <f>VLOOKUP(E170,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="12"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="11"/>
+      <c r="H170" s="12"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="e">
-        <f>VLOOKUP(C171,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9" t="e">
-        <f>VLOOKUP(E171,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="12"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G171" s="11"/>
+      <c r="H171" s="12"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="e">
-        <f>VLOOKUP(C172,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9" t="e">
-        <f>VLOOKUP(E172,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="12"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G172" s="11"/>
+      <c r="H172" s="12"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="e">
-        <f>VLOOKUP(C173,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9" t="e">
-        <f>VLOOKUP(E173,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="12"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G173" s="11"/>
+      <c r="H173" s="12"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="e">
-        <f>VLOOKUP(C174,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="e">
-        <f>VLOOKUP(E174,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="12"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G174" s="11"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="e">
-        <f>VLOOKUP(C175,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9" t="e">
-        <f>VLOOKUP(E175,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="12"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G175" s="11"/>
+      <c r="H175" s="12"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="e">
-        <f>VLOOKUP(C176,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9" t="e">
-        <f>VLOOKUP(E176,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="12"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G176" s="11"/>
+      <c r="H176" s="12"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="e">
-        <f>VLOOKUP(C177,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9" t="e">
-        <f>VLOOKUP(E177,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="12"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G177" s="11"/>
+      <c r="H177" s="12"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9" t="e">
-        <f>VLOOKUP(C178,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9" t="e">
-        <f>VLOOKUP(E178,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="11"/>
-      <c r="I178" s="12"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G178" s="11"/>
+      <c r="H178" s="12"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9" t="e">
-        <f>VLOOKUP(C179,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9" t="e">
-        <f>VLOOKUP(E179,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="12"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G179" s="11"/>
+      <c r="H179" s="12"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="e">
-        <f>VLOOKUP(C180,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9" t="e">
-        <f>VLOOKUP(E180,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="12"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G180" s="11"/>
+      <c r="H180" s="12"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="e">
-        <f>VLOOKUP(C181,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9" t="e">
-        <f>VLOOKUP(E181,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="12"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G181" s="11"/>
+      <c r="H181" s="12"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="e">
-        <f>VLOOKUP(C182,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9" t="e">
-        <f>VLOOKUP(E182,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="12"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G182" s="11"/>
+      <c r="H182" s="12"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="e">
-        <f>VLOOKUP(C183,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9" t="e">
-        <f>VLOOKUP(E183,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="12"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G183" s="11"/>
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="e">
-        <f>VLOOKUP(C184,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9" t="e">
-        <f>VLOOKUP(E184,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="12"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G184" s="11"/>
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="e">
-        <f>VLOOKUP(C185,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9" t="e">
-        <f>VLOOKUP(E185,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="12"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G185" s="11"/>
+      <c r="H185" s="12"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="e">
-        <f>VLOOKUP(C186,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9" t="e">
-        <f>VLOOKUP(E186,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="12"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G186" s="11"/>
+      <c r="H186" s="12"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="e">
-        <f>VLOOKUP(C187,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9" t="e">
-        <f>VLOOKUP(E187,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="12"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G187" s="11"/>
+      <c r="H187" s="12"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="e">
-        <f>VLOOKUP(C188,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9" t="e">
-        <f>VLOOKUP(E188,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="12"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G188" s="11"/>
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="e">
-        <f>VLOOKUP(C189,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9" t="e">
-        <f>VLOOKUP(E189,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="12"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G189" s="11"/>
+      <c r="H189" s="12"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="e">
-        <f>VLOOKUP(C190,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9" t="e">
-        <f>VLOOKUP(E190,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="12"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G190" s="11"/>
+      <c r="H190" s="12"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="e">
-        <f>VLOOKUP(C191,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9" t="e">
-        <f>VLOOKUP(E191,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="12"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G191" s="11"/>
+      <c r="H191" s="12"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="e">
-        <f>VLOOKUP(C192,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9" t="e">
-        <f>VLOOKUP(E192,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="12"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G192" s="11"/>
+      <c r="H192" s="12"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="e">
-        <f>VLOOKUP(C193,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9" t="e">
-        <f>VLOOKUP(E193,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="11"/>
-      <c r="I193" s="12"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G193" s="11"/>
+      <c r="H193" s="12"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="e">
-        <f>VLOOKUP(C194,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9" t="e">
-        <f>VLOOKUP(E194,Tabla_Combustible,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="12"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G194" s="11"/>
+      <c r="H194" s="12"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="e">
-        <f>VLOOKUP(C195,Tabla_Vehiculo,2,)</f>
+        <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_Vehiculo,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9" t="e">
-        <f>VLOOKUP(E195,Tabla_Combustible,2,)</f>
+        <f t="shared" ref="D195:D258" si="7">VLOOKUP(E195,Tabla_Combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="11"/>
-      <c r="I195" s="12"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G195" s="11"/>
+      <c r="H195" s="12"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="e">
-        <f>VLOOKUP(C196,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9" t="e">
-        <f>VLOOKUP(E196,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="12"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G196" s="11"/>
+      <c r="H196" s="12"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="e">
-        <f>VLOOKUP(C197,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9" t="e">
-        <f>VLOOKUP(E197,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="12"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G197" s="11"/>
+      <c r="H197" s="12"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="e">
-        <f>VLOOKUP(C198,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9" t="e">
-        <f>VLOOKUP(E198,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="11"/>
-      <c r="I198" s="12"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G198" s="11"/>
+      <c r="H198" s="12"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="e">
-        <f>VLOOKUP(C199,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9" t="e">
-        <f>VLOOKUP(E199,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="11"/>
-      <c r="I199" s="12"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G199" s="11"/>
+      <c r="H199" s="12"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="e">
-        <f>VLOOKUP(C200,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9" t="e">
-        <f>VLOOKUP(E200,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="12"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G200" s="11"/>
+      <c r="H200" s="12"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="e">
-        <f>VLOOKUP(C201,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9" t="e">
-        <f>VLOOKUP(E201,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="12"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G201" s="11"/>
+      <c r="H201" s="12"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="e">
-        <f>VLOOKUP(C202,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9" t="e">
-        <f>VLOOKUP(E202,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="11"/>
-      <c r="I202" s="12"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G202" s="11"/>
+      <c r="H202" s="12"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="e">
-        <f>VLOOKUP(C203,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9" t="e">
-        <f>VLOOKUP(E203,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="11"/>
-      <c r="I203" s="12"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G203" s="11"/>
+      <c r="H203" s="12"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="e">
-        <f>VLOOKUP(C204,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9" t="e">
-        <f>VLOOKUP(E204,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="12"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G204" s="11"/>
+      <c r="H204" s="12"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="e">
-        <f>VLOOKUP(C205,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9" t="e">
-        <f>VLOOKUP(E205,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="12"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G205" s="11"/>
+      <c r="H205" s="12"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="e">
-        <f>VLOOKUP(C206,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9" t="e">
-        <f>VLOOKUP(E206,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="12"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G206" s="11"/>
+      <c r="H206" s="12"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="e">
-        <f>VLOOKUP(C207,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9" t="e">
-        <f>VLOOKUP(E207,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="12"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G207" s="11"/>
+      <c r="H207" s="12"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="e">
-        <f>VLOOKUP(C208,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9" t="e">
-        <f>VLOOKUP(E208,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="12"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G208" s="11"/>
+      <c r="H208" s="12"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="e">
-        <f>VLOOKUP(C209,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9" t="e">
-        <f>VLOOKUP(E209,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="11"/>
-      <c r="I209" s="12"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G209" s="11"/>
+      <c r="H209" s="12"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="e">
-        <f>VLOOKUP(C210,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9" t="e">
-        <f>VLOOKUP(E210,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="12"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G210" s="11"/>
+      <c r="H210" s="12"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="e">
-        <f>VLOOKUP(C211,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9" t="e">
-        <f>VLOOKUP(E211,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="11"/>
-      <c r="I211" s="12"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G211" s="11"/>
+      <c r="H211" s="12"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="e">
-        <f>VLOOKUP(C212,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9" t="e">
-        <f>VLOOKUP(E212,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="11"/>
-      <c r="I212" s="12"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G212" s="11"/>
+      <c r="H212" s="12"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="e">
-        <f>VLOOKUP(C213,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9" t="e">
-        <f>VLOOKUP(E213,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="11"/>
-      <c r="I213" s="12"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G213" s="11"/>
+      <c r="H213" s="12"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="e">
-        <f>VLOOKUP(C214,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9" t="e">
-        <f>VLOOKUP(E214,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="11"/>
-      <c r="I214" s="12"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G214" s="11"/>
+      <c r="H214" s="12"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="e">
-        <f>VLOOKUP(C215,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9" t="e">
-        <f>VLOOKUP(E215,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="11"/>
-      <c r="I215" s="12"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G215" s="11"/>
+      <c r="H215" s="12"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="e">
-        <f>VLOOKUP(C216,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9" t="e">
-        <f>VLOOKUP(E216,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="11"/>
-      <c r="I216" s="12"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G216" s="11"/>
+      <c r="H216" s="12"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="e">
-        <f>VLOOKUP(C217,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9" t="e">
-        <f>VLOOKUP(E217,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="11"/>
-      <c r="I217" s="12"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G217" s="11"/>
+      <c r="H217" s="12"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="e">
-        <f>VLOOKUP(C218,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9" t="e">
-        <f>VLOOKUP(E218,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="11"/>
-      <c r="I218" s="12"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G218" s="11"/>
+      <c r="H218" s="12"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="e">
-        <f>VLOOKUP(C219,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9" t="e">
-        <f>VLOOKUP(E219,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="11"/>
-      <c r="I219" s="12"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G219" s="11"/>
+      <c r="H219" s="12"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="e">
-        <f>VLOOKUP(C220,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9" t="e">
-        <f>VLOOKUP(E220,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E220" s="9"/>
       <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="11"/>
-      <c r="I220" s="12"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G220" s="11"/>
+      <c r="H220" s="12"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="e">
-        <f>VLOOKUP(C221,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9" t="e">
-        <f>VLOOKUP(E221,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="11"/>
-      <c r="I221" s="12"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G221" s="11"/>
+      <c r="H221" s="12"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9" t="e">
-        <f>VLOOKUP(C222,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9" t="e">
-        <f>VLOOKUP(E222,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="11"/>
-      <c r="I222" s="12"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G222" s="11"/>
+      <c r="H222" s="12"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="e">
-        <f>VLOOKUP(C223,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9" t="e">
-        <f>VLOOKUP(E223,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
-      <c r="H223" s="11"/>
-      <c r="I223" s="12"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G223" s="11"/>
+      <c r="H223" s="12"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="e">
-        <f>VLOOKUP(C224,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9" t="e">
-        <f>VLOOKUP(E224,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-      <c r="H224" s="11"/>
-      <c r="I224" s="12"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G224" s="11"/>
+      <c r="H224" s="12"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="e">
-        <f>VLOOKUP(C225,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9" t="e">
-        <f>VLOOKUP(E225,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="11"/>
-      <c r="I225" s="12"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G225" s="11"/>
+      <c r="H225" s="12"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="e">
-        <f>VLOOKUP(C226,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9" t="e">
-        <f>VLOOKUP(E226,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="11"/>
-      <c r="I226" s="12"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G226" s="11"/>
+      <c r="H226" s="12"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="e">
-        <f>VLOOKUP(C227,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9" t="e">
-        <f>VLOOKUP(E227,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="11"/>
-      <c r="I227" s="12"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G227" s="11"/>
+      <c r="H227" s="12"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="e">
-        <f>VLOOKUP(C228,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9" t="e">
-        <f>VLOOKUP(E228,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E228" s="9"/>
       <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="11"/>
-      <c r="I228" s="12"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G228" s="11"/>
+      <c r="H228" s="12"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="e">
-        <f>VLOOKUP(C229,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9" t="e">
-        <f>VLOOKUP(E229,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="11"/>
-      <c r="I229" s="12"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G229" s="11"/>
+      <c r="H229" s="12"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="e">
-        <f>VLOOKUP(C230,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9" t="e">
-        <f>VLOOKUP(E230,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="11"/>
-      <c r="I230" s="12"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G230" s="11"/>
+      <c r="H230" s="12"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="e">
-        <f>VLOOKUP(C231,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9" t="e">
-        <f>VLOOKUP(E231,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E231" s="9"/>
       <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="11"/>
-      <c r="I231" s="12"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G231" s="11"/>
+      <c r="H231" s="12"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="e">
-        <f>VLOOKUP(C232,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9" t="e">
-        <f>VLOOKUP(E232,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="11"/>
-      <c r="I232" s="12"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G232" s="11"/>
+      <c r="H232" s="12"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="e">
-        <f>VLOOKUP(C233,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9" t="e">
-        <f>VLOOKUP(E233,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="10"/>
-      <c r="G233" s="10"/>
-      <c r="H233" s="11"/>
-      <c r="I233" s="12"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G233" s="11"/>
+      <c r="H233" s="12"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="e">
-        <f>VLOOKUP(C234,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9" t="e">
-        <f>VLOOKUP(E234,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="11"/>
-      <c r="I234" s="12"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G234" s="11"/>
+      <c r="H234" s="12"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="e">
-        <f>VLOOKUP(C235,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9" t="e">
-        <f>VLOOKUP(E235,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="10"/>
-      <c r="G235" s="10"/>
-      <c r="H235" s="11"/>
-      <c r="I235" s="12"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G235" s="11"/>
+      <c r="H235" s="12"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="e">
-        <f>VLOOKUP(C236,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9" t="e">
-        <f>VLOOKUP(E236,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-      <c r="H236" s="11"/>
-      <c r="I236" s="12"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G236" s="11"/>
+      <c r="H236" s="12"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="e">
-        <f>VLOOKUP(C237,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9" t="e">
-        <f>VLOOKUP(E237,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="11"/>
-      <c r="I237" s="12"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G237" s="11"/>
+      <c r="H237" s="12"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="e">
-        <f>VLOOKUP(C238,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9" t="e">
-        <f>VLOOKUP(E238,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="11"/>
-      <c r="I238" s="12"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G238" s="11"/>
+      <c r="H238" s="12"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="e">
-        <f>VLOOKUP(C239,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9" t="e">
-        <f>VLOOKUP(E239,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E239" s="9"/>
       <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="11"/>
-      <c r="I239" s="12"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G239" s="11"/>
+      <c r="H239" s="12"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="e">
-        <f>VLOOKUP(C240,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="9" t="e">
-        <f>VLOOKUP(E240,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-      <c r="H240" s="11"/>
-      <c r="I240" s="12"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G240" s="11"/>
+      <c r="H240" s="12"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="e">
-        <f>VLOOKUP(C241,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="9" t="e">
-        <f>VLOOKUP(E241,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E241" s="9"/>
       <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="11"/>
-      <c r="I241" s="12"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G241" s="11"/>
+      <c r="H241" s="12"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="e">
-        <f>VLOOKUP(C242,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="9" t="e">
-        <f>VLOOKUP(E242,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="11"/>
-      <c r="I242" s="12"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G242" s="11"/>
+      <c r="H242" s="12"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="e">
-        <f>VLOOKUP(C243,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9" t="e">
-        <f>VLOOKUP(E243,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="11"/>
-      <c r="I243" s="12"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G243" s="11"/>
+      <c r="H243" s="12"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="e">
-        <f>VLOOKUP(C244,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9" t="e">
-        <f>VLOOKUP(E244,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="11"/>
-      <c r="I244" s="12"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G244" s="11"/>
+      <c r="H244" s="12"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="e">
-        <f>VLOOKUP(C245,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9" t="e">
-        <f>VLOOKUP(E245,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="11"/>
-      <c r="I245" s="12"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G245" s="11"/>
+      <c r="H245" s="12"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="e">
-        <f>VLOOKUP(C246,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9" t="e">
-        <f>VLOOKUP(E246,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E246" s="9"/>
       <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="11"/>
-      <c r="I246" s="12"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G246" s="11"/>
+      <c r="H246" s="12"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="e">
-        <f>VLOOKUP(C247,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9" t="e">
-        <f>VLOOKUP(E247,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="12"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G247" s="11"/>
+      <c r="H247" s="12"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="e">
-        <f>VLOOKUP(C248,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9" t="e">
-        <f>VLOOKUP(E248,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="11"/>
-      <c r="I248" s="12"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G248" s="11"/>
+      <c r="H248" s="12"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="e">
-        <f>VLOOKUP(C249,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9" t="e">
-        <f>VLOOKUP(E249,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="10"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="11"/>
-      <c r="I249" s="12"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G249" s="11"/>
+      <c r="H249" s="12"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="e">
-        <f>VLOOKUP(C250,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9" t="e">
-        <f>VLOOKUP(E250,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="10"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="12"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G250" s="11"/>
+      <c r="H250" s="12"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="e">
-        <f>VLOOKUP(C251,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9" t="e">
-        <f>VLOOKUP(E251,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="10"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="12"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G251" s="11"/>
+      <c r="H251" s="12"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="e">
-        <f>VLOOKUP(C252,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9" t="e">
-        <f>VLOOKUP(E252,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="11"/>
-      <c r="I252" s="12"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G252" s="11"/>
+      <c r="H252" s="12"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="e">
-        <f>VLOOKUP(C253,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9" t="e">
-        <f>VLOOKUP(E253,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="10"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="11"/>
-      <c r="I253" s="12"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G253" s="11"/>
+      <c r="H253" s="12"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="e">
-        <f>VLOOKUP(C254,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="9" t="e">
-        <f>VLOOKUP(E254,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="12"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G254" s="11"/>
+      <c r="H254" s="12"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="e">
-        <f>VLOOKUP(C255,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9" t="e">
-        <f>VLOOKUP(E255,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="11"/>
-      <c r="I255" s="12"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G255" s="11"/>
+      <c r="H255" s="12"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="e">
-        <f>VLOOKUP(C256,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9" t="e">
-        <f>VLOOKUP(E256,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E256" s="9"/>
       <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="12"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G256" s="11"/>
+      <c r="H256" s="12"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="e">
-        <f>VLOOKUP(C257,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="9" t="e">
-        <f>VLOOKUP(E257,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-      <c r="H257" s="11"/>
-      <c r="I257" s="12"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G257" s="11"/>
+      <c r="H257" s="12"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="e">
-        <f>VLOOKUP(C258,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9" t="e">
-        <f>VLOOKUP(E258,Tabla_Combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="11"/>
-      <c r="I258" s="12"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G258" s="11"/>
+      <c r="H258" s="12"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="e">
-        <f>VLOOKUP(C259,Tabla_Vehiculo,2,)</f>
+        <f t="shared" ref="B259:B310" si="8">VLOOKUP(C259,Tabla_Vehiculo,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9" t="e">
-        <f>VLOOKUP(E259,Tabla_Combustible,2,)</f>
+        <f t="shared" ref="D259:D310" si="9">VLOOKUP(E259,Tabla_Combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="11"/>
-      <c r="I259" s="12"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G259" s="11"/>
+      <c r="H259" s="12"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="e">
-        <f>VLOOKUP(C260,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="9" t="e">
-        <f>VLOOKUP(E260,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="11"/>
-      <c r="I260" s="12"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G260" s="11"/>
+      <c r="H260" s="12"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="e">
-        <f>VLOOKUP(C261,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="9" t="e">
-        <f>VLOOKUP(E261,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="12"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G261" s="11"/>
+      <c r="H261" s="12"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9" t="e">
-        <f>VLOOKUP(C262,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="9" t="e">
-        <f>VLOOKUP(E262,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="10"/>
-      <c r="G262" s="10"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="12"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G262" s="11"/>
+      <c r="H262" s="12"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="e">
-        <f>VLOOKUP(C263,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="9" t="e">
-        <f>VLOOKUP(E263,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="10"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="12"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G263" s="11"/>
+      <c r="H263" s="12"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="e">
-        <f>VLOOKUP(C264,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9" t="e">
-        <f>VLOOKUP(E264,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="12"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G264" s="11"/>
+      <c r="H264" s="12"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="e">
-        <f>VLOOKUP(C265,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9" t="e">
-        <f>VLOOKUP(E265,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="12"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G265" s="11"/>
+      <c r="H265" s="12"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="e">
-        <f>VLOOKUP(C266,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9" t="e">
-        <f>VLOOKUP(E266,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E266" s="9"/>
       <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
-      <c r="H266" s="11"/>
-      <c r="I266" s="12"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G266" s="11"/>
+      <c r="H266" s="12"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="e">
-        <f>VLOOKUP(C267,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9" t="e">
-        <f>VLOOKUP(E267,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="10"/>
-      <c r="G267" s="10"/>
-      <c r="H267" s="11"/>
-      <c r="I267" s="12"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G267" s="11"/>
+      <c r="H267" s="12"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="e">
-        <f>VLOOKUP(C268,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9" t="e">
-        <f>VLOOKUP(E268,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E268" s="9"/>
       <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
-      <c r="H268" s="11"/>
-      <c r="I268" s="12"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G268" s="11"/>
+      <c r="H268" s="12"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="e">
-        <f>VLOOKUP(C269,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9" t="e">
-        <f>VLOOKUP(E269,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
-      <c r="H269" s="11"/>
-      <c r="I269" s="12"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G269" s="11"/>
+      <c r="H269" s="12"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="e">
-        <f>VLOOKUP(C270,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9" t="e">
-        <f>VLOOKUP(E270,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E270" s="9"/>
       <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
-      <c r="H270" s="11"/>
-      <c r="I270" s="12"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G270" s="11"/>
+      <c r="H270" s="12"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="e">
-        <f>VLOOKUP(C271,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="9" t="e">
-        <f>VLOOKUP(E271,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E271" s="9"/>
       <c r="F271" s="10"/>
-      <c r="G271" s="10"/>
-      <c r="H271" s="11"/>
-      <c r="I271" s="12"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G271" s="11"/>
+      <c r="H271" s="12"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="e">
-        <f>VLOOKUP(C272,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="9" t="e">
-        <f>VLOOKUP(E272,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="10"/>
-      <c r="G272" s="10"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="12"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G272" s="11"/>
+      <c r="H272" s="12"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="e">
-        <f>VLOOKUP(C273,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="9" t="e">
-        <f>VLOOKUP(E273,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="10"/>
-      <c r="G273" s="10"/>
-      <c r="H273" s="11"/>
-      <c r="I273" s="12"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G273" s="11"/>
+      <c r="H273" s="12"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="e">
-        <f>VLOOKUP(C274,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="9" t="e">
-        <f>VLOOKUP(E274,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
-      <c r="H274" s="11"/>
-      <c r="I274" s="12"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G274" s="11"/>
+      <c r="H274" s="12"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="e">
-        <f>VLOOKUP(C275,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="9" t="e">
-        <f>VLOOKUP(E275,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E275" s="9"/>
       <c r="F275" s="10"/>
-      <c r="G275" s="10"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="12"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G275" s="11"/>
+      <c r="H275" s="12"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="e">
-        <f>VLOOKUP(C276,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="9" t="e">
-        <f>VLOOKUP(E276,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="10"/>
-      <c r="G276" s="10"/>
-      <c r="H276" s="11"/>
-      <c r="I276" s="12"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G276" s="11"/>
+      <c r="H276" s="12"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="9" t="e">
-        <f>VLOOKUP(C277,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="9" t="e">
-        <f>VLOOKUP(E277,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
-      <c r="H277" s="11"/>
-      <c r="I277" s="12"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G277" s="11"/>
+      <c r="H277" s="12"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="9" t="e">
-        <f>VLOOKUP(C278,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="9" t="e">
-        <f>VLOOKUP(E278,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="10"/>
-      <c r="G278" s="10"/>
-      <c r="H278" s="11"/>
-      <c r="I278" s="12"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G278" s="11"/>
+      <c r="H278" s="12"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="9" t="e">
-        <f>VLOOKUP(C279,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="9" t="e">
-        <f>VLOOKUP(E279,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="10"/>
-      <c r="G279" s="10"/>
-      <c r="H279" s="11"/>
-      <c r="I279" s="12"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G279" s="11"/>
+      <c r="H279" s="12"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="9" t="e">
-        <f>VLOOKUP(C280,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="9" t="e">
-        <f>VLOOKUP(E280,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E280" s="9"/>
       <c r="F280" s="10"/>
-      <c r="G280" s="10"/>
-      <c r="H280" s="11"/>
-      <c r="I280" s="12"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G280" s="11"/>
+      <c r="H280" s="12"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="9" t="e">
-        <f>VLOOKUP(C281,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9" t="e">
-        <f>VLOOKUP(E281,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E281" s="9"/>
       <c r="F281" s="10"/>
-      <c r="G281" s="10"/>
-      <c r="H281" s="11"/>
-      <c r="I281" s="12"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G281" s="11"/>
+      <c r="H281" s="12"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9" t="e">
-        <f>VLOOKUP(C282,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="9"/>
       <c r="D282" s="9" t="e">
-        <f>VLOOKUP(E282,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E282" s="9"/>
       <c r="F282" s="10"/>
-      <c r="G282" s="10"/>
-      <c r="H282" s="11"/>
-      <c r="I282" s="12"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G282" s="11"/>
+      <c r="H282" s="12"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="9" t="e">
-        <f>VLOOKUP(C283,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="9" t="e">
-        <f>VLOOKUP(E283,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E283" s="9"/>
       <c r="F283" s="10"/>
-      <c r="G283" s="10"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="12"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G283" s="11"/>
+      <c r="H283" s="12"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="e">
-        <f>VLOOKUP(C284,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="9" t="e">
-        <f>VLOOKUP(E284,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E284" s="9"/>
       <c r="F284" s="10"/>
-      <c r="G284" s="10"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="12"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G284" s="11"/>
+      <c r="H284" s="12"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="e">
-        <f>VLOOKUP(C285,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="9" t="e">
-        <f>VLOOKUP(E285,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E285" s="9"/>
       <c r="F285" s="10"/>
-      <c r="G285" s="10"/>
-      <c r="H285" s="11"/>
-      <c r="I285" s="12"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G285" s="11"/>
+      <c r="H285" s="12"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="e">
-        <f>VLOOKUP(C286,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="9"/>
       <c r="D286" s="9" t="e">
-        <f>VLOOKUP(E286,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E286" s="9"/>
       <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="12"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G286" s="11"/>
+      <c r="H286" s="12"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="e">
-        <f>VLOOKUP(C287,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="9" t="e">
-        <f>VLOOKUP(E287,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
-      <c r="H287" s="11"/>
-      <c r="I287" s="12"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G287" s="11"/>
+      <c r="H287" s="12"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="e">
-        <f>VLOOKUP(C288,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="9"/>
       <c r="D288" s="9" t="e">
-        <f>VLOOKUP(E288,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="12"/>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G288" s="11"/>
+      <c r="H288" s="12"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9" t="e">
-        <f>VLOOKUP(C289,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="9" t="e">
-        <f>VLOOKUP(E289,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E289" s="9"/>
       <c r="F289" s="10"/>
-      <c r="G289" s="10"/>
-      <c r="H289" s="11"/>
-      <c r="I289" s="12"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G289" s="11"/>
+      <c r="H289" s="12"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9" t="e">
-        <f>VLOOKUP(C290,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="9"/>
       <c r="D290" s="9" t="e">
-        <f>VLOOKUP(E290,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E290" s="9"/>
       <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-      <c r="H290" s="11"/>
-      <c r="I290" s="12"/>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G290" s="11"/>
+      <c r="H290" s="12"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9" t="e">
-        <f>VLOOKUP(C291,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="9"/>
       <c r="D291" s="9" t="e">
-        <f>VLOOKUP(E291,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="10"/>
-      <c r="G291" s="10"/>
-      <c r="H291" s="11"/>
-      <c r="I291" s="12"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G291" s="11"/>
+      <c r="H291" s="12"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9" t="e">
-        <f>VLOOKUP(C292,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="9" t="e">
-        <f>VLOOKUP(E292,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E292" s="9"/>
       <c r="F292" s="10"/>
-      <c r="G292" s="10"/>
-      <c r="H292" s="11"/>
-      <c r="I292" s="12"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G292" s="11"/>
+      <c r="H292" s="12"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9" t="e">
-        <f>VLOOKUP(C293,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="9" t="e">
-        <f>VLOOKUP(E293,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="10"/>
-      <c r="G293" s="10"/>
-      <c r="H293" s="11"/>
-      <c r="I293" s="12"/>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G293" s="11"/>
+      <c r="H293" s="12"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="e">
-        <f>VLOOKUP(C294,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9" t="e">
-        <f>VLOOKUP(E294,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="10"/>
-      <c r="G294" s="10"/>
-      <c r="H294" s="11"/>
-      <c r="I294" s="12"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G294" s="11"/>
+      <c r="H294" s="12"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="e">
-        <f>VLOOKUP(C295,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9" t="e">
-        <f>VLOOKUP(E295,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="10"/>
-      <c r="G295" s="10"/>
-      <c r="H295" s="11"/>
-      <c r="I295" s="12"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G295" s="11"/>
+      <c r="H295" s="12"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="e">
-        <f>VLOOKUP(C296,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="9" t="e">
-        <f>VLOOKUP(E296,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="12"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G296" s="11"/>
+      <c r="H296" s="12"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="e">
-        <f>VLOOKUP(C297,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9" t="e">
-        <f>VLOOKUP(E297,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="10"/>
-      <c r="G297" s="10"/>
-      <c r="H297" s="11"/>
-      <c r="I297" s="12"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G297" s="11"/>
+      <c r="H297" s="12"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="e">
-        <f>VLOOKUP(C298,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9" t="e">
-        <f>VLOOKUP(E298,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="10"/>
-      <c r="G298" s="10"/>
-      <c r="H298" s="11"/>
-      <c r="I298" s="12"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G298" s="11"/>
+      <c r="H298" s="12"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="e">
-        <f>VLOOKUP(C299,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9" t="e">
-        <f>VLOOKUP(E299,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="10"/>
-      <c r="G299" s="10"/>
-      <c r="H299" s="11"/>
-      <c r="I299" s="12"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G299" s="11"/>
+      <c r="H299" s="12"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="e">
-        <f>VLOOKUP(C300,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9" t="e">
-        <f>VLOOKUP(E300,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="10"/>
-      <c r="G300" s="10"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="12"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G300" s="11"/>
+      <c r="H300" s="12"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9" t="e">
-        <f>VLOOKUP(C301,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="9" t="e">
-        <f>VLOOKUP(E301,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="10"/>
-      <c r="G301" s="10"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="12"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G301" s="11"/>
+      <c r="H301" s="12"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="e">
-        <f>VLOOKUP(C302,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9" t="e">
-        <f>VLOOKUP(E302,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="10"/>
-      <c r="G302" s="10"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="12"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G302" s="11"/>
+      <c r="H302" s="12"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="e">
-        <f>VLOOKUP(C303,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9" t="e">
-        <f>VLOOKUP(E303,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E303" s="9"/>
       <c r="F303" s="10"/>
-      <c r="G303" s="10"/>
-      <c r="H303" s="11"/>
-      <c r="I303" s="12"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G303" s="11"/>
+      <c r="H303" s="12"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="e">
-        <f>VLOOKUP(C304,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9" t="e">
-        <f>VLOOKUP(E304,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E304" s="9"/>
       <c r="F304" s="10"/>
-      <c r="G304" s="10"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="12"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G304" s="11"/>
+      <c r="H304" s="12"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="e">
-        <f>VLOOKUP(C305,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="9" t="e">
-        <f>VLOOKUP(E305,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E305" s="9"/>
       <c r="F305" s="10"/>
-      <c r="G305" s="10"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="12"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G305" s="11"/>
+      <c r="H305" s="12"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="e">
-        <f>VLOOKUP(C306,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="9" t="e">
-        <f>VLOOKUP(E306,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
-      <c r="H306" s="11"/>
-      <c r="I306" s="12"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G306" s="11"/>
+      <c r="H306" s="12"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="e">
-        <f>VLOOKUP(C307,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9" t="e">
-        <f>VLOOKUP(E307,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="10"/>
-      <c r="G307" s="10"/>
-      <c r="H307" s="11"/>
-      <c r="I307" s="12"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G307" s="11"/>
+      <c r="H307" s="12"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="e">
-        <f>VLOOKUP(C308,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9" t="e">
-        <f>VLOOKUP(E308,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="10"/>
-      <c r="G308" s="10"/>
-      <c r="H308" s="11"/>
-      <c r="I308" s="12"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G308" s="11"/>
+      <c r="H308" s="12"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="e">
-        <f>VLOOKUP(C309,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9" t="e">
-        <f>VLOOKUP(E309,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="10"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="11"/>
-      <c r="I309" s="12"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G309" s="11"/>
+      <c r="H309" s="12"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="e">
-        <f>VLOOKUP(C310,Tabla_Vehiculo,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9" t="e">
-        <f>VLOOKUP(E310,Tabla_Combustible,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E310" s="9"/>
       <c r="F310" s="10"/>
-      <c r="G310" s="10"/>
-      <c r="H310" s="11"/>
-      <c r="I310" s="12"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U/jUawPyc/Rx9E+FJoPKB9jZyNW5buDx74iZc3wsUZDLHzqJzTh88JByrIAt5z3Gzquex2pVKDvYmqctqGS20w==" saltValue="e4OpG1bNFN/NW6gpWz1umw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="6">
+  <sheetProtection algorithmName="SHA-512" hashValue="EVFqQsyUHUQs0iI8JcwAlfcxteY5MB76Y3404r3V8VOE5dciqatvyC7nlqqyeusKPrrzG3FxLllZyfg81ukIuQ==" saltValue="5Y++GsfDYrK3o5dtuOP+4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{F98236DA-AB09-4EC9-B01D-71564C400682}">
       <formula1>Tabla_Anno</formula1>
     </dataValidation>
@@ -5966,13 +5637,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E310" xr:uid="{F1C2007F-90F5-48A2-8A58-340EA75E8802}">
       <formula1>Lista_Combustible</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="F3 G4 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73 F75 F77 F79 F81 F83 F85 F87 F89 F91 F93 F95 F97 F99 F101 F103 F105 F107 F109 F111 F113 F115 F117 F119 F121 F123 F125 F127 F129 F131 F133 F135 F137 F139 F141 F143 F145 F147 F149 F151 F153 F155 F157 F159 F161 F163 F165 F167 F169 F171 F173 F175 F177 F179 F181 F183 F185 F187 F189 F191 F193 F195 F197 F199 F201 F203 F205 F207 F209 F211 F213 F215 F217 F219 F221 F223 F225 F227 F229 F231 F233 F235 F237 F239 F241 F243 F245 F247 F249 F251 F253 F255 F257 F259 F261 F263 F265 F267 F269 F271 F273 F275 F277 F279 F281 F283 F285 F287 F289 F291 F293 F295 F297 F299 F301 F303 F305 F307 F309 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26 G28 G30 G32 G34 G36 G38 G40 G42 G44 G46 G48 G50 G52 G54 G56 G58 G60 G62 G64 G66 G68 G70 G72 G74 G76 G78 G80 G82 G84 G86 G88 G90 G92 G94 G96 G98 G100 G102 G104 G106 G108 G110 G112 G114 G116 G118 G120 G122 G124 G126 G128 G130 G132 G134 G136 G138 G140 G142 G144 G146 G148 G150 G152 G154 G156 G158 G160 G162 G164 G166 G168 G170 G172 G174 G176 G178 G180 G182 G184 G186 G188 G190 G192 G194 G196 G198 G200 G202 G204 G206 G208 G210 G212 G214 G216 G218 G220 G222 G224 G226 G228 G230 G232 G234 G236 G238 G240 G242 G244 G246 G248 G250 G252 G254 G256 G258 G260 G262 G264 G266 G268 G270 G272 G274 G276 G278 G280 G282 G284 G286 G288 G290 G292 G294 G296 G298 G300 G302 G304 G306 G308 G310" xr:uid="{F7F2BA94-A702-4A24-8D1E-57EDDEE1CA63}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73 F75 F77 F79 F81 F83 F85 F87 F89 F91 F93 F95 F97 F99 F101 F103 F105 F107 F109 F111 F113 F115 F117 F119 F121 F123 F125 F127 F129 F131 F133 F135 F137 F139 F141 F143 F145 F147 F149 F151 F153 F155 F157 F159 F161 F163 F165 F167 F169 F171 F173 F175 F177 F179 F181 F183 F185 F187 F189 F191 F193 F195 F197 F199 F201 F203 F205 F207 F209 F211 F213 F215 F217 F219 F221 F223 F225 F227 F229 F231 F233 F235 F237 F239 F241 F243 F245 F247 F249 F251 F253 F255 F257 F259 F261 F263 F265 F267 F269 F271 F273 F275 F277 F279 F281 F283 F285 F287 F289 F291 F293 F295 F297 F299 F301 F303 F305 F307 F309" xr:uid="{F7F2BA94-A702-4A24-8D1E-57EDDEE1CA63}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
-    </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25 G27 G29 G31 G33 G35 G37 G39 G41 G43 G45 G47 G49 G51 G53 G55 G57 G59 G61 G63 G65 G67 G69 G71 G73 G75 G77 G79 G81 G83 G85 G87 G89 G91 G93 G95 G97 G99 G101 G103 G105 G107 G109 G111 G113 G115 G117 G119 G121 G123 G125 G127 G129 G131 G133 G135 G137 G139 G141 G143 G145 G147 G149 G151 G153 G155 G157 G159 G161 G163 G165 G167 G169 G171 G173 G175 G177 G179 G181 G183 G185 G187 G189 G191 G193 G195 G197 G199 G201 G203 G205 G207 G209 G211 G213 G215 G217 G219 G221 G223 G225 G227 G229 G231 G233 G235 G237 G239 G241 G243 G245 G247 G249 G251 G253 G255 G257 G259 G261 G263 G265 G267 G269 G271 G273 G275 G277 G279 G281 G283 G285 G287 G289 G291 G293 G295 G297 G299 G301 G303 G305 G307 G309" xr:uid="{D9523F48-85A0-4B6F-AA09-572FC7C61B79}">
-      <formula1>0</formula1>
-      <formula2>9999999999999</formula2>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72 F74 F76 F78 F80 F82 F84 F86 F88 F90 F92 F94 F96 F98 F100 F102 F104 F106 F108 F110 F112 F114 F116 F118 F120 F122 F124 F126 F128 F130 F132 F134 F136 F138 F140 F142 F144 F146 F148 F150 F152 F154 F156 F158 F160 F162 F164 F166 F168 F170 F172 F174 F176 F178 F180 F182 F184 F186 F188 F190 F192 F194 F196 F198 F200 F202 F204 F206 F208 F210 F212 F214 F216 F218 F220 F222 F224 F226 F228 F230 F232 F234 F236 F238 F240 F242 F244 F246 F248 F250 F252 F254 F256 F258 F260 F262 F264 F266 F268 F270 F272 F274 F276 F278 F280 F282 F284 F286 F288 F290 F292 F294 F296 F298 F300 F302 F304 F306 F308 F310" xr:uid="{27521535-7F29-4166-9424-6FA37BD9BC69}">
       <formula1>0</formula1>
@@ -6002,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Recorrido.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Recorrido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C23A06-45C0-454B-B85F-730B25946C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EB6FE-300B-4E17-9388-E3BD179ED312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{30B905BA-7AAF-4B26-A03D-2CCA40FD8F48}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5626,7 +5626,7 @@
       <c r="H310" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EVFqQsyUHUQs0iI8JcwAlfcxteY5MB76Y3404r3V8VOE5dciqatvyC7nlqqyeusKPrrzG3FxLllZyfg81ukIuQ==" saltValue="5Y++GsfDYrK3o5dtuOP+4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tpnOoLQJdEHLpiHZu0YI7bbXLQSM4LGT5tB+rGtW5BcuVqx+6AtBRjOh2/0uZ9K0mGcb/2C72cfxw4KR7ieVrQ==" saltValue="fRGSoSTmA7ku50ymdXm8Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{F98236DA-AB09-4EC9-B01D-71564C400682}">
       <formula1>Tabla_Anno</formula1>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Recorrido.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/4.1 Plantilla_Vehiculos_electricos_Recorrido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1F27D-988E-4B30-A91B-39D22E2D911A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C9099-FC2D-4296-B58B-B96FFD8E426E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{30B905BA-7AAF-4B26-A03D-2CCA40FD8F48}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>Automovil</t>
-  </si>
-  <si>
     <t>Bus 9m</t>
   </si>
   <si>
@@ -86,15 +83,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Tipo de vehiculo</t>
-  </si>
-  <si>
-    <t>KRV eléctrico</t>
-  </si>
-  <si>
-    <t>Factor de Rendimiento</t>
-  </si>
-  <si>
     <t>Placa</t>
   </si>
   <si>
@@ -102,12 +90,6 @@
   </si>
   <si>
     <t>BCD-623</t>
-  </si>
-  <si>
-    <t>Combustible línea base</t>
-  </si>
-  <si>
-    <t>Año al que corresponde la adquisición del vehículo. Seleccione de la lista desplegable.</t>
   </si>
   <si>
     <t>Categoria del vehiculo. Seleccione de la lista desplegable.</t>
@@ -125,7 +107,25 @@
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
-    <t>Factor de Rendimiento (Si no se conoce el valor, se debe asignar uno de los valores por defecto siguientes: Automovil (0.1629), Bus 9m (1.1000), Bus 12m (1.1765), Bus 18m (1.2700), Moto taxi (0.0543) y moto (0.0271). Inserte su dato.</t>
+    <t>Automóvil</t>
+  </si>
+  <si>
+    <t>Factor de Rendimiento (kWh/km)</t>
+  </si>
+  <si>
+    <t>Factor de rendimiento del vehículo eléctrico (Si no se conoce el valor, se debe asignar uno de los valores por defecto siguientes: Automovil (0.1629), Bus 9m (1.1000), Bus 12m (1.1765), Bus 18m (1.2700), Moto taxi (0.0543) y moto (0.0271). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Año en que se considera operación del vehículo eléctrico. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Tipo de Vehículo</t>
+  </si>
+  <si>
+    <t>Combustible Línea Base</t>
+  </si>
+  <si>
+    <t>KRV Eléctrico (km.año)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -313,9 +313,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,7 +658,7 @@
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,90 +675,90 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>26</v>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>2018</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_Vehiculo,2,)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_Combustible,2,)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
         <v>57600</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>0.16289999999999999</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>20</v>
+      <c r="H4" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5677,7 +5674,7 @@
       <c r="H311" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g5F0v+a6Z7oSerFchLUCoLOst/LQVuLY/y01kdfO8z4I96I4W/k8jNPkyEMyHjG1oZ1Z1RJlyBbrvIng7I1Q1A==" saltValue="UoUVdbEqVipEVpyv69DsjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e9a6Xx+QnSsmDcTCyIw6PmIqV2GJcq0ChTP5EhbLFL4SU8jr2Ka60gJIpc3n/h/4TXNnIgQfnGYcoz6yc91bRg==" saltValue="3Tn/vdFdWOAjdNeybVqBpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -5710,7 +5707,7 @@
   <dimension ref="A5:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5724,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -5741,13 +5738,13 @@
         <v>2010</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -5758,13 +5755,13 @@
         <v>2011</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -5775,13 +5772,13 @@
         <v>2012</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -5792,13 +5789,13 @@
         <v>2013</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -5809,7 +5806,7 @@
         <v>2014</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -5820,7 +5817,7 @@
         <v>2015</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
